--- a/PolicyBazaarStructured/InsuranceData.xlsx
+++ b/PolicyBazaarStructured/InsuranceData.xlsx
@@ -8,16 +8,17 @@
   <sheets>
     <sheet name="Health Insurance" r:id="rId3" sheetId="1"/>
     <sheet name="Term Insurance" r:id="rId4" sheetId="2"/>
-    <sheet name="Bike Insurance" r:id="rId5" sheetId="3"/>
-    <sheet name="Travel Insurance" r:id="rId6" sheetId="4"/>
-    <sheet name="International Travel Insurance" r:id="rId7" sheetId="5"/>
-    <sheet name="HomeInsurance" r:id="rId8" sheetId="6"/>
+    <sheet name="Car Insurance" r:id="rId5" sheetId="3"/>
+    <sheet name="Bike Insurance" r:id="rId6" sheetId="4"/>
+    <sheet name="Travel Insurance" r:id="rId7" sheetId="5"/>
+    <sheet name="International Travel Insurance" r:id="rId8" sheetId="6"/>
+    <sheet name="HomeInsurance" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="699">
   <si>
     <t>Category</t>
   </si>
@@ -520,7 +521,7 @@
     <t>Medicare Select</t>
   </si>
   <si>
-    <t>₹364/month</t>
+    <t>₹393/month</t>
   </si>
   <si>
     <t>https://static.pbcdn.in/health-cdn/images/insurer-logo/Tata_AIG@2x.png</t>
@@ -823,7 +824,7 @@
     <t>₹707/month</t>
   </si>
   <si>
-    <t>₹792/month</t>
+    <t>₹857/month</t>
   </si>
   <si>
     <t>₹1,449/month</t>
@@ -1096,6 +1097,9 @@
     <t>₹1,061/month</t>
   </si>
   <si>
+    <t>₹2,001/month</t>
+  </si>
+  <si>
     <t>₹1,916/month</t>
   </si>
   <si>
@@ -1288,6 +1292,225 @@
     <t>Premium</t>
   </si>
   <si>
+    <t>Comprehensive</t>
+  </si>
+  <si>
+    <t>₹2,237</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/17.png</t>
+  </si>
+  <si>
+    <t>₹2,263</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/39.png</t>
+  </si>
+  <si>
+    <t>₹2,300</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/8.png</t>
+  </si>
+  <si>
+    <t>₹2,316</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/28.png</t>
+  </si>
+  <si>
+    <t>₹2,326</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/29.png</t>
+  </si>
+  <si>
+    <t>₹2,371</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/3.png</t>
+  </si>
+  <si>
+    <t>₹2,379</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/1.png</t>
+  </si>
+  <si>
+    <t>₹2,383</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/6.png</t>
+  </si>
+  <si>
+    <t>₹2,397</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/22.png</t>
+  </si>
+  <si>
+    <t>₹2,442</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/9.png</t>
+  </si>
+  <si>
+    <t>₹2,462</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/15.png</t>
+  </si>
+  <si>
+    <t>₹2,499</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/4.png</t>
+  </si>
+  <si>
+    <t>₹2,522</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/35.png</t>
+  </si>
+  <si>
+    <t>₹2,612</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/36.png</t>
+  </si>
+  <si>
+    <t>₹2,647</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/11.png</t>
+  </si>
+  <si>
+    <t>₹2,659</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/14.png</t>
+  </si>
+  <si>
+    <t>₹2,690</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/12.png</t>
+  </si>
+  <si>
+    <t>₹2,736</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/13.png</t>
+  </si>
+  <si>
+    <t>₹3,327</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/2.png</t>
+  </si>
+  <si>
+    <t>₹3,657</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/5.png</t>
+  </si>
+  <si>
+    <t>₹4,439</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/car-cdn/car2.0/insurer/10.png</t>
+  </si>
+  <si>
+    <t>Own Damage</t>
+  </si>
+  <si>
+    <t>₹770</t>
+  </si>
+  <si>
+    <t>₹772</t>
+  </si>
+  <si>
+    <t>₹812</t>
+  </si>
+  <si>
+    <t>₹1,000</t>
+  </si>
+  <si>
+    <t>₹1,008</t>
+  </si>
+  <si>
+    <t>₹1,194</t>
+  </si>
+  <si>
+    <t>₹1,655</t>
+  </si>
+  <si>
+    <t>₹1,763</t>
+  </si>
+  <si>
+    <t>₹1,778</t>
+  </si>
+  <si>
+    <t>₹2,446</t>
+  </si>
+  <si>
+    <t>₹2,463</t>
+  </si>
+  <si>
+    <t>₹2,834</t>
+  </si>
+  <si>
+    <t>₹2,894</t>
+  </si>
+  <si>
+    <t>₹2,925</t>
+  </si>
+  <si>
+    <t>₹2,980</t>
+  </si>
+  <si>
+    <t>₹3,981</t>
+  </si>
+  <si>
+    <t>₹4,040</t>
+  </si>
+  <si>
+    <t>₹4,224</t>
+  </si>
+  <si>
+    <t>₹4,748</t>
+  </si>
+  <si>
+    <t>₹5,320</t>
+  </si>
+  <si>
+    <t>Third Party</t>
+  </si>
+  <si>
+    <t>₹2,094</t>
+  </si>
+  <si>
+    <t>Pay As You Drive</t>
+  </si>
+  <si>
+    <t>₹2,194</t>
+  </si>
+  <si>
+    <t>₹2,363</t>
+  </si>
+  <si>
+    <t>₹2,370</t>
+  </si>
+  <si>
+    <t>₹2,438</t>
+  </si>
+  <si>
+    <t>₹2,540</t>
+  </si>
+  <si>
+    <t>₹2,863</t>
+  </si>
+  <si>
     <t>Comprehensive Plan</t>
   </si>
   <si>
@@ -1642,6 +1865,18 @@
     <t>Starting at ₹ 31/day</t>
   </si>
   <si>
+    <t>National Overseas Travel Policy</t>
+  </si>
+  <si>
+    <t>National Insurance National Overseas Travel Policy</t>
+  </si>
+  <si>
+    <t>https://static.pbcdn.in/travel-cdn/images/insurer-logos/National_Insurance@2x.png</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Senior Citizens</t>
   </si>
   <si>
@@ -1762,6 +1997,9 @@
     <t>Starting at ₹ 42/day</t>
   </si>
   <si>
+    <t>Starting at ₹ 49/day</t>
+  </si>
+  <si>
     <t>Gold</t>
   </si>
   <si>
@@ -1781,6 +2019,9 @@
   </si>
   <si>
     <t>Zurich Kotak Smart Travel - Silver</t>
+  </si>
+  <si>
+    <t>Starting at ₹ 95/day</t>
   </si>
   <si>
     <t>Starting at ₹ 109/day</t>
@@ -6134,7 +6375,7 @@
         <v>7</v>
       </c>
       <c r="D248" t="s" s="0">
-        <v>284</v>
+        <v>359</v>
       </c>
       <c r="E248" t="s" s="0">
         <v>168</v>
@@ -6151,7 +6392,7 @@
         <v>7</v>
       </c>
       <c r="D249" t="s" s="0">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E249" t="s" s="0">
         <v>168</v>
@@ -6168,7 +6409,7 @@
         <v>7</v>
       </c>
       <c r="D250" t="s" s="0">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E250" t="s" s="0">
         <v>168</v>
@@ -6185,7 +6426,7 @@
         <v>7</v>
       </c>
       <c r="D251" t="s" s="0">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E251" t="s" s="0">
         <v>175</v>
@@ -6202,7 +6443,7 @@
         <v>7</v>
       </c>
       <c r="D252" t="s" s="0">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E252" t="s" s="0">
         <v>175</v>
@@ -6219,7 +6460,7 @@
         <v>7</v>
       </c>
       <c r="D253" t="s" s="0">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E253" t="s" s="0">
         <v>175</v>
@@ -6236,7 +6477,7 @@
         <v>7</v>
       </c>
       <c r="D254" t="s" s="0">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E254" t="s" s="0">
         <v>183</v>
@@ -6260,16 +6501,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F1" t="s" s="0">
         <v>4</v>
@@ -6277,242 +6518,242 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -6521,6 +6762,789 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D53"/>
   <sheetViews>
@@ -6530,13 +7554,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>4</v>
@@ -6544,730 +7568,730 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>424</v>
+        <v>498</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>425</v>
+        <v>499</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>426</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>427</v>
+        <v>501</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>425</v>
+        <v>499</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>428</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>430</v>
+        <v>504</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>431</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>432</v>
+        <v>506</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>433</v>
+        <v>507</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>434</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>435</v>
+        <v>509</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>436</v>
+        <v>510</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>437</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>439</v>
+        <v>513</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>440</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>441</v>
+        <v>515</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>442</v>
+        <v>516</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>443</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>444</v>
+        <v>518</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>445</v>
+        <v>519</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>446</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>448</v>
+        <v>522</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>449</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>450</v>
+        <v>524</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>451</v>
+        <v>525</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>452</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>453</v>
+        <v>527</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>454</v>
+        <v>528</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>455</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>456</v>
+        <v>530</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>457</v>
+        <v>531</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>458</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>459</v>
+        <v>533</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>460</v>
+        <v>534</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>461</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>462</v>
+        <v>536</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>460</v>
+        <v>534</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>463</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>464</v>
+        <v>538</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>465</v>
+        <v>539</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>466</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>468</v>
+        <v>542</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>469</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>470</v>
+        <v>544</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>471</v>
+        <v>545</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>472</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>474</v>
+        <v>548</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>475</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>476</v>
+        <v>550</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>477</v>
+        <v>551</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>478</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>435</v>
+        <v>509</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>437</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>424</v>
+        <v>498</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>426</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>440</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>431</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>432</v>
+        <v>506</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>434</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>450</v>
+        <v>524</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>452</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>453</v>
+        <v>527</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>455</v>
+        <v>529</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>427</v>
+        <v>501</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>428</v>
+        <v>502</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>475</v>
+        <v>549</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>459</v>
+        <v>533</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>461</v>
+        <v>535</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>476</v>
+        <v>550</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>478</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>444</v>
+        <v>518</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>446</v>
+        <v>520</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>441</v>
+        <v>515</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>443</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>464</v>
+        <v>538</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>466</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>449</v>
+        <v>523</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>456</v>
+        <v>530</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>458</v>
+        <v>532</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>469</v>
+        <v>543</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>427</v>
+        <v>501</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>482</v>
+        <v>556</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>428</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>453</v>
+        <v>527</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>482</v>
+        <v>556</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>455</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>435</v>
+        <v>509</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>483</v>
+        <v>557</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>437</v>
+        <v>511</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>459</v>
+        <v>533</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>484</v>
+        <v>558</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>461</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>424</v>
+        <v>498</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>485</v>
+        <v>559</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>426</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>462</v>
+        <v>536</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>486</v>
+        <v>560</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>463</v>
+        <v>537</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>432</v>
+        <v>506</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>487</v>
+        <v>561</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>434</v>
+        <v>508</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>450</v>
+        <v>524</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>488</v>
+        <v>562</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>452</v>
+        <v>526</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>464</v>
+        <v>538</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>488</v>
+        <v>562</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>466</v>
+        <v>540</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>444</v>
+        <v>518</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>489</v>
+        <v>563</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>446</v>
+        <v>520</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>490</v>
+        <v>564</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>449</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>456</v>
+        <v>530</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>491</v>
+        <v>565</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>458</v>
+        <v>532</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>476</v>
+        <v>550</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>491</v>
+        <v>565</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>478</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>492</v>
+        <v>566</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>475</v>
+        <v>549</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>493</v>
+        <v>567</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>431</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>494</v>
+        <v>568</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>469</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -7275,9 +8299,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7291,496 +8315,536 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>495</v>
+        <v>569</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>4</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>496</v>
+        <v>570</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>497</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>499</v>
+        <v>573</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>500</v>
+        <v>574</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>501</v>
+        <v>575</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>502</v>
+        <v>576</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>503</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>504</v>
+        <v>578</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>505</v>
+        <v>579</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>506</v>
+        <v>580</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>507</v>
+        <v>581</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>503</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>508</v>
+        <v>582</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>510</v>
+        <v>584</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>511</v>
+        <v>585</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>512</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>513</v>
+        <v>587</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>514</v>
+        <v>588</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>515</v>
+        <v>589</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>516</v>
+        <v>590</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>512</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>517</v>
+        <v>591</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>518</v>
+        <v>592</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>519</v>
+        <v>593</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>516</v>
+        <v>590</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>520</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>521</v>
+        <v>595</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>522</v>
+        <v>596</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>523</v>
+        <v>597</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>524</v>
+        <v>598</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>512</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>526</v>
+        <v>600</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>527</v>
+        <v>601</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>524</v>
+        <v>598</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>528</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>529</v>
+        <v>603</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>530</v>
+        <v>604</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>531</v>
+        <v>605</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>532</v>
+        <v>606</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>503</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>533</v>
+        <v>607</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>534</v>
+        <v>608</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>535</v>
+        <v>609</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>536</v>
+        <v>610</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>503</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>537</v>
+        <v>611</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>538</v>
+        <v>612</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>539</v>
+        <v>613</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>540</v>
+        <v>614</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>512</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>504</v>
+        <v>615</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>505</v>
+        <v>616</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>506</v>
+        <v>617</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>542</v>
+        <v>614</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>503</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>543</v>
+        <v>620</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>520</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>521</v>
+        <v>591</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>522</v>
+        <v>592</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>523</v>
+        <v>593</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>544</v>
+        <v>621</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>512</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>529</v>
+        <v>595</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>530</v>
+        <v>596</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>531</v>
+        <v>597</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>545</v>
+        <v>622</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>503</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>513</v>
+        <v>603</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>514</v>
+        <v>604</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>515</v>
+        <v>605</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>546</v>
+        <v>623</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>512</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>499</v>
+        <v>615</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>500</v>
+        <v>616</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>501</v>
+        <v>617</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>503</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>548</v>
+        <v>587</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>549</v>
+        <v>588</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>510</v>
+        <v>589</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>550</v>
+        <v>624</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>512</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>533</v>
+        <v>573</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>534</v>
+        <v>574</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>535</v>
+        <v>575</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>551</v>
+        <v>625</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>503</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>552</v>
+        <v>626</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>553</v>
+        <v>627</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>554</v>
+        <v>628</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>528</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>537</v>
+        <v>607</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>538</v>
+        <v>608</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>539</v>
+        <v>609</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>555</v>
+        <v>629</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>512</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>557</v>
+        <v>630</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>558</v>
+        <v>631</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>510</v>
+        <v>601</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>559</v>
+        <v>632</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>560</v>
+        <v>602</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>561</v>
+        <v>611</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>562</v>
+        <v>612</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>515</v>
+        <v>613</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>563</v>
+        <v>633</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>560</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>556</v>
+        <v>634</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>564</v>
+        <v>635</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>565</v>
+        <v>636</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>536</v>
+        <v>637</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>528</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>556</v>
+        <v>634</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>566</v>
+        <v>639</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>567</v>
+        <v>640</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>568</v>
+        <v>641</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>528</v>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>601</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -7788,9 +8852,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7804,496 +8868,536 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>495</v>
+        <v>569</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>4</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>496</v>
+        <v>570</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>497</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>569</v>
+        <v>647</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>570</v>
+        <v>648</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>506</v>
+        <v>580</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>571</v>
+        <v>649</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>572</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>573</v>
+        <v>651</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>574</v>
+        <v>652</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>501</v>
+        <v>575</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>575</v>
+        <v>653</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>512</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>508</v>
+        <v>582</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>510</v>
+        <v>584</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>576</v>
+        <v>654</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>512</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>577</v>
+        <v>655</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>578</v>
+        <v>656</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>523</v>
+        <v>597</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>579</v>
+        <v>657</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>512</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>513</v>
+        <v>587</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>514</v>
+        <v>588</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>515</v>
+        <v>589</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>580</v>
+        <v>658</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>512</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>581</v>
+        <v>615</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>535</v>
+        <v>617</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>542</v>
+        <v>659</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>512</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>529</v>
+        <v>660</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>530</v>
+        <v>661</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>531</v>
+        <v>609</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>583</v>
+        <v>620</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>503</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>517</v>
+        <v>603</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>518</v>
+        <v>604</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>519</v>
+        <v>605</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>584</v>
+        <v>662</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>520</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>525</v>
+        <v>591</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>585</v>
+        <v>663</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>528</v>
+        <v>594</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>539</v>
+        <v>601</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>585</v>
+        <v>664</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>512</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>513</v>
+        <v>665</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>514</v>
+        <v>666</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>515</v>
+        <v>613</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>588</v>
+        <v>664</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>512</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>499</v>
+        <v>615</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>500</v>
+        <v>616</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>501</v>
+        <v>617</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>589</v>
+        <v>667</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>503</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>506</v>
+        <v>589</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>592</v>
+        <v>668</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>503</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>593</v>
+        <v>669</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>512</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>517</v>
+        <v>670</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>518</v>
+        <v>671</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>594</v>
+        <v>672</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>520</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>582</v>
+        <v>627</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>535</v>
+        <v>584</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>595</v>
+        <v>673</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>512</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>523</v>
+        <v>593</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>596</v>
+        <v>674</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>512</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>529</v>
+        <v>660</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>530</v>
+        <v>661</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>531</v>
+        <v>609</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>597</v>
+        <v>675</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>503</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>552</v>
+        <v>655</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>553</v>
+        <v>656</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>527</v>
+        <v>597</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>598</v>
+        <v>676</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>528</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>539</v>
+        <v>605</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>599</v>
+        <v>677</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>512</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>557</v>
+        <v>630</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>558</v>
+        <v>631</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>510</v>
+        <v>601</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>559</v>
+        <v>678</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>560</v>
+        <v>602</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>561</v>
+        <v>665</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>562</v>
+        <v>666</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>515</v>
+        <v>613</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>571</v>
+        <v>679</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>560</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>556</v>
+        <v>634</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>564</v>
+        <v>635</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>565</v>
+        <v>636</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>600</v>
+        <v>637</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>528</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>556</v>
+        <v>634</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>566</v>
+        <v>639</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>567</v>
+        <v>640</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="E25" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="D27" t="s" s="0">
         <v>601</v>
       </c>
-      <c r="F25" t="s" s="0">
-        <v>528</v>
+      <c r="E27" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -8301,7 +9405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -8311,90 +9415,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>602</v>
+        <v>682</v>
       </c>
       <c r="B1" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>603</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>604</v>
+        <v>684</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>605</v>
+        <v>685</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>606</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>604</v>
+        <v>684</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>607</v>
+        <v>687</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>608</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>604</v>
+        <v>684</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>609</v>
+        <v>689</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>610</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>604</v>
+        <v>684</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>611</v>
+        <v>691</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>612</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>604</v>
+        <v>684</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>613</v>
+        <v>693</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>614</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>604</v>
+        <v>684</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>615</v>
+        <v>695</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>616</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>617</v>
+        <v>697</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>605</v>
+        <v>685</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>618</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
